--- a/ig/branch/dev/StructureDefinition-phenopackets-genomic-interpretation.xlsx
+++ b/ig/branch/dev/StructureDefinition-phenopackets-genomic-interpretation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="438">
   <si>
     <t>Property</t>
   </si>
@@ -277,6 +277,10 @@
   </si>
   <si>
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1524,10 +1528,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1995,16 +1999,16 @@
         <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>81</v>
@@ -2012,10 +2016,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2026,7 +2030,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>81</v>
@@ -2035,19 +2039,19 @@
         <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2097,13 +2101,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2126,10 +2130,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2140,7 +2144,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -2149,16 +2153,16 @@
         <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2209,19 +2213,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2238,10 +2242,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2252,28 +2256,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2323,19 +2327,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2352,10 +2356,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2366,7 +2370,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2378,16 +2382,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2413,13 +2417,13 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>81</v>
@@ -2437,19 +2441,19 @@
         <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2466,21 +2470,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2492,16 +2496,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2551,19 +2555,19 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>81</v>
@@ -2572,7 +2576,7 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2580,14 +2584,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2606,16 +2610,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2665,7 +2669,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2686,7 +2690,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -2694,10 +2698,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2720,13 +2724,13 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2765,17 +2769,17 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2787,7 +2791,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2804,13 +2808,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>81</v>
@@ -2832,13 +2836,13 @@
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2889,7 +2893,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2898,10 +2902,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -2918,13 +2922,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>81</v>
@@ -2946,13 +2950,13 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3003,7 +3007,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3012,10 +3016,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
@@ -3032,13 +3036,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>81</v>
@@ -3060,13 +3064,13 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3117,7 +3121,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3126,10 +3130,10 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>81</v>
@@ -3146,13 +3150,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>81</v>
@@ -3174,13 +3178,13 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3231,7 +3235,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3240,10 +3244,10 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
@@ -3260,13 +3264,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>81</v>
@@ -3288,19 +3292,19 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3349,7 +3353,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3358,10 +3362,10 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -3378,13 +3382,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>81</v>
@@ -3406,13 +3410,13 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3463,7 +3467,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3472,10 +3476,10 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>81</v>
@@ -3492,10 +3496,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3503,7 +3507,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>80</v>
@@ -3512,19 +3516,19 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3563,17 +3567,17 @@
         <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3585,7 +3589,7 @@
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
@@ -3602,41 +3606,41 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3687,7 +3691,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3696,10 +3700,10 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -3716,14 +3720,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3739,22 +3743,22 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3803,7 +3807,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3815,31 +3819,31 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3858,19 +3862,19 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3919,7 +3923,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3931,16 +3935,16 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -3948,10 +3952,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3959,32 +3963,32 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -3994,7 +3998,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>81</v>
@@ -4009,13 +4013,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4033,47 +4037,47 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>80</v>
@@ -4085,19 +4089,19 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4123,31 +4127,31 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4159,40 +4163,40 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4201,19 +4205,19 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4239,13 +4243,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4263,7 +4267,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4275,27 +4279,27 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4306,7 +4310,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4318,13 +4322,13 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4375,13 +4379,13 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -4396,7 +4400,7 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4404,14 +4408,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4430,16 +4434,16 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4477,19 +4481,19 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4501,7 +4505,7 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
@@ -4510,7 +4514,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4518,10 +4522,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4529,7 +4533,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -4541,22 +4545,22 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4566,7 +4570,7 @@
         <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>81</v>
@@ -4605,7 +4609,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4617,16 +4621,16 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4634,10 +4638,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4648,7 +4652,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4657,22 +4661,22 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4721,28 +4725,28 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4750,21 +4754,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -4773,16 +4777,16 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4809,13 +4813,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4833,72 +4837,72 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4947,50 +4951,50 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -4999,22 +5003,22 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5063,50 +5067,50 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5115,22 +5119,22 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5179,50 +5183,50 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5231,22 +5235,22 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5295,43 +5299,43 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5347,22 +5351,22 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5411,7 +5415,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5423,31 +5427,31 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5463,22 +5467,22 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5527,7 +5531,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5539,27 +5543,27 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5570,7 +5574,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5582,19 +5586,19 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5643,7 +5647,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5655,16 +5659,16 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5672,18 +5676,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -5698,19 +5702,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5747,19 +5751,19 @@
         <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5771,16 +5775,16 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5788,23 +5792,23 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -5816,19 +5820,19 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5877,7 +5881,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5889,16 +5893,16 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5906,16 +5910,16 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5934,19 +5938,19 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5995,7 +5999,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6007,16 +6011,16 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6024,16 +6028,16 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6052,19 +6056,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6113,7 +6117,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6125,16 +6129,16 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6142,26 +6146,26 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
@@ -6170,19 +6174,19 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6231,7 +6235,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6243,16 +6247,16 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6260,16 +6264,16 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6288,19 +6292,19 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6349,7 +6353,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6361,16 +6365,16 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6378,16 +6382,16 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6406,19 +6410,19 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6467,7 +6471,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6479,16 +6483,16 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6496,16 +6500,16 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6524,19 +6528,19 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6585,7 +6589,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6597,16 +6601,16 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6614,16 +6618,16 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6642,19 +6646,19 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6703,7 +6707,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6715,16 +6719,16 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6732,10 +6736,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6758,16 +6762,16 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6817,7 +6821,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6829,7 +6833,7 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
@@ -6838,7 +6842,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6846,14 +6850,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6869,20 +6873,20 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6931,7 +6935,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6943,16 +6947,16 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -6960,10 +6964,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6974,7 +6978,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -6986,13 +6990,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7043,13 +7047,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7064,7 +7068,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7072,14 +7076,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7098,16 +7102,16 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7157,7 +7161,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7169,7 +7173,7 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
@@ -7178,7 +7182,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7186,14 +7190,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7206,25 +7210,25 @@
         <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7273,7 +7277,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7285,7 +7289,7 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7294,7 +7298,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7302,10 +7306,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7316,7 +7320,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7328,19 +7332,19 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7389,19 +7393,19 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
@@ -7410,7 +7414,7 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7418,10 +7422,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7429,10 +7433,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7441,16 +7445,16 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7501,19 +7505,19 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -7522,7 +7526,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7530,21 +7534,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7556,17 +7560,17 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7615,28 +7619,28 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -7644,10 +7648,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7670,13 +7674,13 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7703,13 +7707,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -7727,7 +7731,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7739,16 +7743,16 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -7756,10 +7760,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7782,19 +7786,19 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -7843,7 +7847,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7855,16 +7859,16 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
